--- a/project2/momentum_strategy.xlsx
+++ b/project2/momentum_strategy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>index</t>
   </si>
@@ -86,6 +86,126 @@
   </si>
   <si>
     <t>CINF</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>BRK.B</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>AEE</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>AKAM</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>AWK</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BF.B</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>CMA</t>
+  </si>
+  <si>
+    <t>BXP</t>
   </si>
   <si>
     <t>N/A</t>
@@ -467,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,37 +656,37 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>177.91</v>
+        <v>176.423</v>
       </c>
       <c r="D2" s="4">
-        <v>510</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4">
-        <v>0.7035991199474836</v>
+        <v>0.7122834173130919</v>
       </c>
       <c r="F2" s="4">
         <v>0.97</v>
       </c>
       <c r="G2" s="4">
-        <v>0.6294661377882497</v>
+        <v>0.6380923988874337</v>
       </c>
       <c r="H2" s="4">
         <v>0.98</v>
       </c>
       <c r="I2" s="4">
-        <v>0.3025134623328238</v>
+        <v>0.3061046765538725</v>
       </c>
       <c r="J2" s="4">
         <v>0.96</v>
       </c>
       <c r="K2" s="4">
-        <v>0.1745910329040991</v>
+        <v>0.1772668473769774</v>
       </c>
       <c r="L2" s="3">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>0.9724999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -577,37 +697,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>108.9</v>
+        <v>108.97</v>
       </c>
       <c r="D3" s="4">
-        <v>834</v>
+        <v>179</v>
       </c>
       <c r="E3" s="4">
-        <v>1.450635339691463</v>
+        <v>1.422910620328518</v>
       </c>
       <c r="F3" s="4">
         <v>0.99</v>
       </c>
       <c r="G3" s="4">
-        <v>0.7941128592183635</v>
+        <v>0.792686560773877</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I3" s="4">
-        <v>0.638598061136855</v>
+        <v>0.6107243875839971</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>0.1153762015343159</v>
+        <v>0.116511241395596</v>
       </c>
       <c r="L3" s="3">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="M3">
-        <v>0.95</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -618,34 +738,34 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>97.37</v>
+        <v>96.59</v>
       </c>
       <c r="D4" s="4">
-        <v>933</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4">
-        <v>0.6936758584472378</v>
+        <v>0.6642156561435046</v>
       </c>
       <c r="F4" s="4">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4">
-        <v>0.5455005953648064</v>
+        <v>0.5452726299460854</v>
       </c>
       <c r="H4" s="4">
         <v>0.97</v>
       </c>
       <c r="I4" s="4">
-        <v>0.3847431053011835</v>
+        <v>0.3752470975179759</v>
       </c>
       <c r="J4" s="4">
         <v>0.97</v>
       </c>
       <c r="K4" s="4">
-        <v>0.1306549775803632</v>
+        <v>0.1342869128172297</v>
       </c>
       <c r="L4" s="3">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M4">
         <v>0.9399999999999999</v>
@@ -659,37 +779,37 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>168.95</v>
+        <v>173.29</v>
       </c>
       <c r="D5" s="4">
-        <v>538</v>
+        <v>113</v>
       </c>
       <c r="E5" s="4">
-        <v>0.4511438272557088</v>
+        <v>0.4373368171166594</v>
       </c>
       <c r="F5" s="4">
         <v>0.91</v>
       </c>
       <c r="G5" s="4">
-        <v>0.4089587249845643</v>
+        <v>0.405954086025996</v>
       </c>
       <c r="H5" s="4">
         <v>0.9399999999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>0.2329328778567406</v>
+        <v>0.237208494256732</v>
       </c>
       <c r="J5" s="4">
         <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4">
-        <v>0.1331264667017575</v>
+        <v>0.1378273006884131</v>
       </c>
       <c r="L5" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M5">
-        <v>0.9175</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -700,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>79.70999999999999</v>
+        <v>79.66</v>
       </c>
       <c r="D6" s="4">
-        <v>1140</v>
+        <v>246</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2829561218788434</v>
+        <v>0.2936258364498431</v>
       </c>
       <c r="F6" s="4">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3892202149702165</v>
+        <v>0.3873112557006632</v>
       </c>
       <c r="H6" s="4">
         <v>0.93</v>
       </c>
       <c r="I6" s="4">
-        <v>0.2053013852847423</v>
+        <v>0.2066255365997844</v>
       </c>
       <c r="J6" s="4">
         <v>0.92</v>
       </c>
       <c r="K6" s="4">
-        <v>0.1506322912159852</v>
+        <v>0.1512147769246101</v>
       </c>
       <c r="L6" s="3">
         <v>0.9399999999999999</v>
       </c>
       <c r="M6">
-        <v>0.8925000000000001</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -741,37 +861,37 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>2226.01</v>
+        <v>2181.03</v>
       </c>
       <c r="D7" s="4">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
-        <v>0.5474377535750011</v>
+        <v>0.5371905604954356</v>
       </c>
       <c r="F7" s="4">
         <v>0.9399999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>0.3162816122892638</v>
+        <v>0.3150937548908156</v>
       </c>
       <c r="H7" s="4">
         <v>0.89</v>
       </c>
       <c r="I7" s="4">
-        <v>0.08966699123188429</v>
+        <v>0.08856309691579911</v>
       </c>
       <c r="J7" s="4">
         <v>0.76</v>
       </c>
       <c r="K7" s="4">
-        <v>0.1747376200716576</v>
+        <v>0.1752868640651294</v>
       </c>
       <c r="L7" s="3">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M7">
-        <v>0.8925</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -782,37 +902,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>42.7</v>
+        <v>43.12</v>
       </c>
       <c r="D8" s="4">
-        <v>2129</v>
+        <v>454</v>
       </c>
       <c r="E8" s="4">
-        <v>1.563094570430522</v>
+        <v>1.51909469205102</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0.7846264971127426</v>
+        <v>0.8093683519475098</v>
       </c>
       <c r="H8" s="4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0.4747111968580243</v>
+        <v>0.4736418036601092</v>
       </c>
       <c r="J8" s="4">
         <v>0.99</v>
       </c>
       <c r="K8" s="4">
-        <v>0.07729291029984266</v>
+        <v>0.07457965732684055</v>
       </c>
       <c r="L8" s="3">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="M8">
-        <v>0.885</v>
+        <v>0.8825000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -823,31 +943,31 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>184.67</v>
+        <v>188.87</v>
       </c>
       <c r="D9" s="4">
-        <v>492</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4">
-        <v>0.4145852058534636</v>
+        <v>0.4181322330442983</v>
       </c>
       <c r="F9" s="4">
         <v>0.89</v>
       </c>
       <c r="G9" s="4">
-        <v>0.18967072855268</v>
+        <v>0.18811733989385</v>
       </c>
       <c r="H9" s="4">
         <v>0.76</v>
       </c>
       <c r="I9" s="4">
-        <v>0.1354049427228536</v>
+        <v>0.1343543357379296</v>
       </c>
       <c r="J9" s="4">
         <v>0.84</v>
       </c>
       <c r="K9" s="4">
-        <v>0.1816914180984532</v>
+        <v>0.1818231923045496</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
@@ -864,37 +984,37 @@
         <v>21</v>
       </c>
       <c r="C10" s="3">
-        <v>518.53</v>
+        <v>517.59</v>
       </c>
       <c r="D10" s="4">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4">
-        <v>0.460670117535566</v>
+        <v>0.4738056777426155</v>
       </c>
       <c r="F10" s="4">
         <v>0.93</v>
       </c>
       <c r="G10" s="4">
-        <v>0.370112622437506</v>
+        <v>0.365650164352626</v>
       </c>
       <c r="H10" s="4">
         <v>0.91</v>
       </c>
       <c r="I10" s="4">
-        <v>0.2014509054409107</v>
+        <v>0.1938086041812923</v>
       </c>
       <c r="J10" s="4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K10" s="4">
-        <v>0.1020638336917451</v>
+        <v>0.1018924757482239</v>
       </c>
       <c r="L10" s="3">
         <v>0.73</v>
       </c>
       <c r="M10">
-        <v>0.87</v>
+        <v>0.8675</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -905,34 +1025,34 @@
         <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>344.68</v>
+        <v>338.3</v>
       </c>
       <c r="D11" s="4">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4">
-        <v>0.4252017928483215</v>
+        <v>0.4313147967934056</v>
       </c>
       <c r="F11" s="4">
         <v>0.9</v>
       </c>
       <c r="G11" s="4">
-        <v>0.1392951595180933</v>
+        <v>0.1426093344633092</v>
       </c>
       <c r="H11" s="4">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I11" s="4">
-        <v>0.1885478389861756</v>
+        <v>0.1882671152768572</v>
       </c>
       <c r="J11" s="4">
         <v>0.89</v>
       </c>
       <c r="K11" s="4">
-        <v>0.1412476418773397</v>
+        <v>0.1404999784377902</v>
       </c>
       <c r="L11" s="3">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M11">
         <v>0.8475</v>
@@ -946,37 +1066,1677 @@
         <v>23</v>
       </c>
       <c r="C12" s="3">
-        <v>143.46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>140.49</v>
+      </c>
+      <c r="D12" s="4">
+        <v>139</v>
       </c>
       <c r="E12" s="4">
-        <v>0.342428732507699</v>
+        <v>0.3423884218011442</v>
       </c>
       <c r="F12" s="4">
         <v>0.85</v>
       </c>
       <c r="G12" s="4">
-        <v>0.1621894591422204</v>
+        <v>0.1654166174686956</v>
       </c>
       <c r="H12" s="4">
         <v>0.73</v>
       </c>
       <c r="I12" s="4">
-        <v>0.1791191836514477</v>
+        <v>0.1769641048453658</v>
       </c>
       <c r="J12" s="4">
         <v>0.88</v>
       </c>
       <c r="K12" s="4">
-        <v>0.1369942693203688</v>
+        <v>0.1409860727294088</v>
       </c>
       <c r="L12" s="3">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="M12">
-        <v>0.8375</v>
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>304</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.06926435186336169</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.3045300393053276</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.2278542165291057</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.1803900364043366</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M13">
+        <v>0.8275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38.62</v>
+      </c>
+      <c r="D14" s="4">
+        <v>507</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.9383151260462534</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.5101390166340112</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.4691497962285206</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.02181099019003265</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M14">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>144.51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>135</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.2468028848977835</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.1403330232844929</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.1601405341579554</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.1598900300757699</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M15">
+        <v>0.7975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <v>353.04</v>
+      </c>
+      <c r="D16" s="4">
+        <v>55</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.3320378213252272</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.2534782075432933</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.1113508611788716</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.086987344018554</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M16">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>134.498</v>
+      </c>
+      <c r="D17" s="4">
+        <v>145</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.6712906759879184</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.4105676112643085</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-0.003972831314069918</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.08499315398109168</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="M17">
+        <v>0.7849999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>195.54</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.286743490025634</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.1541452912567524</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.2007674955838655</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.1010028084857988</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="M18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>241.39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.2907501792564208</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.1704030304034347</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.02690134833858349</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.1392270393815934</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>0.7775000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>123.31</v>
+      </c>
+      <c r="D20" s="4">
+        <v>159</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.2612539325118849</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.378077633437923</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.1708908198603495</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.07749751930367613</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="M20">
+        <v>0.7775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3">
+        <v>98.89</v>
+      </c>
+      <c r="D21" s="4">
+        <v>198</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.2358505949672881</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.2033347896970416</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.1177519874200396</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.1135029065188426</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="M21">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3">
+        <v>68.84</v>
+      </c>
+      <c r="D22" s="4">
+        <v>284</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.3079738236958979</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.2178152354360985</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.05006771129979809</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.09484409750441665</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="M22">
+        <v>0.7625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>294</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.3893785212320501</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.110927013668782</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.03516523410657854</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.1156956808578337</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="M23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3">
+        <v>259.09</v>
+      </c>
+      <c r="D24" s="4">
+        <v>75</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.06334119243226112</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.2747291735788551</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.1108472246447107</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.1283229697379435</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="M24">
+        <v>0.7575000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>225.53</v>
+      </c>
+      <c r="D25" s="4">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.3842327572519324</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.1960091605550406</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.0928261657512708</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.08023723121554056</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M25">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3">
+        <v>198.9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>98</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.1712228462480587</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.1848113978543617</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.04892153130637181</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.1353584539740117</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="M26">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4">
+        <v>190</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.2523992117341096</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.2584448986462083</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.1544789677289175</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.0735021877964272</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="M27">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3">
+        <v>264.07</v>
+      </c>
+      <c r="D28" s="4">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.04688309037745444</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.2309628228067</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.1043604299046813</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.1154088878710298</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3">
+        <v>275.96</v>
+      </c>
+      <c r="D29" s="4">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.1545554519618335</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.1958017165126989</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.09612102768652309</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.09916888395813447</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="M29">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>108.61</v>
+      </c>
+      <c r="D30" s="4">
+        <v>180</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.2149235279432361</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.2579253280579623</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.009306537039797183</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.08089581165474331</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="M30">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3">
+        <v>180.35</v>
+      </c>
+      <c r="D31" s="4">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.2668591028202312</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.05467632196348458</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.06127025546900017</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.08807043859030531</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="M31">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3">
+        <v>169.751</v>
+      </c>
+      <c r="D32" s="4">
+        <v>115</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.2995555781907973</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.2001383363448071</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-0.01129746378748696</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.58</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.07394346694191638</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="M32">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3">
+        <v>226.04</v>
+      </c>
+      <c r="D33" s="4">
+        <v>86</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.2617227632319825</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.06800741259375361</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="I33" s="4">
+        <v>-0.02897524368375668</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.1133120992384485</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="M33">
+        <v>0.6675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3">
+        <v>121.11</v>
+      </c>
+      <c r="D34" s="4">
+        <v>161</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.146053572377734</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.1649936800554468</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.05206841129742572</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.08077849137094656</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="M34">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3">
+        <v>93.72799999999999</v>
+      </c>
+      <c r="D35" s="4">
+        <v>209</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.3000703305876737</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.3284537399002537</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.01503666454533592</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.007498023595768923</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="M35">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3">
+        <v>271.25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>72</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.135915986832978</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.02230294310324895</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.007934319361035488</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.1456554258937302</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="M36">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3">
+        <v>203.05</v>
+      </c>
+      <c r="D37" s="4">
+        <v>96</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.4471926377698219</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G37" s="4">
+        <v>-0.01559575452013295</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="I37" s="4">
+        <v>-0.06990621832167736</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.1282807903638061</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="M37">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3">
+        <v>247.33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>79</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.3861134891298398</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.1330086533170324</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.0104562444135147</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.02979049625705335</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="M38">
+        <v>0.6375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3">
+        <v>177.064</v>
+      </c>
+      <c r="D39" s="4">
+        <v>110</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.1410436995706248</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.58</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.001860443705752612</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.003057834493832134</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.1145777475191304</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M39">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>72</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45.2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>433</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.144576230461698</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.03989349963749877</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.05747655249673819</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.0754449674552167</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="M40">
+        <v>0.5975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3">
+        <v>36.83</v>
+      </c>
+      <c r="D41" s="4">
+        <v>532</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-0.01276335621036363</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.04352869127070223</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.0192481360437871</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.1291603562270244</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="M41">
+        <v>0.5975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="3">
+        <v>203.55</v>
+      </c>
+      <c r="D42" s="4">
+        <v>96</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.2407331135154583</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.06626292670070112</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-0.01817538618999788</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.06804767950724488</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="M42">
+        <v>0.5825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3">
+        <v>24.72</v>
+      </c>
+      <c r="D43" s="4">
+        <v>793</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-0.08295000912355864</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.04661624284710943</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.09025717485907481</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.1119927658133761</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="M43">
+        <v>0.5775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>96</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3">
+        <v>80.95</v>
+      </c>
+      <c r="D44" s="4">
+        <v>242</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.02877444355158604</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.0759934994842825</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-0.03651838812486444</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.09043262735634532</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="M44">
+        <v>0.5650000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3">
+        <v>303.91</v>
+      </c>
+      <c r="D45" s="4">
+        <v>64</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.2475897300013946</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.05834306074340385</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-0.07916502471510431</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.0781200316974044</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="M45">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3">
+        <v>608.7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>32</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.250308121091653</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.2152610061665177</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-0.04960037772096308</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.005643831166091921</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M46">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3">
+        <v>328.46</v>
+      </c>
+      <c r="D47" s="4">
+        <v>59</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.1964558610003009</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.05028292415075497</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-0.09283660461956664</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.09792237435062766</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>70</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3">
+        <v>157.6</v>
+      </c>
+      <c r="D48" s="4">
+        <v>124</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.04902205090389224</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-0.04165469956875126</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-0.0417080777795167</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.1129371468351504</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="M48">
+        <v>0.5275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="D49" s="4">
+        <v>275</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-0.01491271754297963</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.02457813280433285</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.0423776881296088</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.0770971823089359</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="M49">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3">
+        <v>161</v>
+      </c>
+      <c r="D50" s="4">
+        <v>121</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.09085426618422822</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.0548436467790745</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.58</v>
+      </c>
+      <c r="I50" s="4">
+        <v>-0.04819007452349805</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.06056351145673298</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="M50">
+        <v>0.5175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3">
+        <v>94.41</v>
+      </c>
+      <c r="D51" s="4">
+        <v>207</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.2835013536314587</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.06956778674036325</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I51" s="4">
+        <v>-0.08208705011557563</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.01198976394969073</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="M51">
+        <v>0.5025000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3">
+        <v>126</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.2147220614612046</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.09663017013616421</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I52" s="4">
+        <v>-0.01221463547055409</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="K52" s="4">
+        <v>-0.01110509747180028</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M52">
+        <v>0.5024999999999999</v>
       </c>
     </row>
   </sheetData>
